--- a/storage/app/reports/trich-xuat-thanh-toan.xlsx
+++ b/storage/app/reports/trich-xuat-thanh-toan.xlsx
@@ -103,7 +103,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -428,25 +428,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,32 +458,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -526,6 +502,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10460,7 +10460,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="2E353D"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -10721,82 +10721,82 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="45" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="40" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="13"/>
-    <col min="9" max="9" width="17.85546875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="11.28515625" style="13" hidden="1"/>
+    <col min="8" max="8" width="9" style="13" hidden="1"/>
+    <col min="9" max="9" width="17.85546875" style="13" hidden="1"/>
+    <col min="10" max="10" width="41.28515625" style="13" hidden="1"/>
+    <col min="11" max="11" width="18.5703125" style="13" hidden="1"/>
+    <col min="12" max="12" width="17.28515625" style="13" hidden="1"/>
+    <col min="13" max="13" width="19.85546875" style="6" hidden="1"/>
+    <col min="14" max="16384" width="9" style="6" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="40"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="40"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -10806,168 +10806,168 @@
     <row r="6" spans="1:6" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="49"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="42"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="43"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="51"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="44"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="45"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="46"/>
+      <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="C11" s="46"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="46"/>
+      <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="46"/>
+      <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="C13" s="46"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="46"/>
+      <c r="E13" s="38"/>
     </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="C14" s="46"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="46"/>
+      <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="46"/>
+      <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="C16" s="46"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="C17" s="46"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="46"/>
+      <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="C18" s="46"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="46"/>
+      <c r="E18" s="38"/>
     </row>
-    <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="C19" s="46"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="C20" s="46"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="46"/>
+      <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="C21" s="46"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="C22" s="46"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="46"/>
+      <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="C24" s="46"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="C25" s="46"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="C26" s="46"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="46"/>
+      <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="C27" s="46"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="46"/>
+      <c r="E27" s="38"/>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="C28" s="46"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="46"/>
+      <c r="E28" s="38"/>
     </row>
-    <row r="29" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="C29" s="46"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="46"/>
+      <c r="E29" s="38"/>
     </row>
-    <row r="30" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="C30" s="46"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="46"/>
+      <c r="E30" s="38"/>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="47"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="2"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -10976,11 +10976,11 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="C32" s="52"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="47"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="2"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -10989,11 +10989,11 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="C33" s="52"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="47"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="2"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -11002,11 +11002,11 @@
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="C34" s="52"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="2"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -11015,11 +11015,11 @@
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="C35" s="52"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="47"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="2"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -11028,11 +11028,11 @@
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="C36" s="52"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="47"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="2"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -11041,11 +11041,11 @@
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="47"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="2"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -11054,11 +11054,11 @@
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
     </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="C38" s="52"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="47"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="2"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -11067,11 +11067,11 @@
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
     </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="C39" s="52"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="47"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="2"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -11080,11 +11080,11 @@
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="C40" s="52"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="47"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="2"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -11093,11 +11093,11 @@
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="C41" s="52"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="2"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -11106,11 +11106,11 @@
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="C42" s="52"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="47"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="2"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -11119,11 +11119,11 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="C43" s="52"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="47"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="2"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -11132,11 +11132,11 @@
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
     </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="C44" s="52"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="47"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="2"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -11145,11 +11145,11 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="C45" s="52"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="47"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="2"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -11158,11 +11158,11 @@
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="C46" s="52"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="47"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="2"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -11171,11 +11171,11 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="C47" s="52"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="47"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="2"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
@@ -11184,11 +11184,11 @@
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="C48" s="52"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="47"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="2"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
